--- a/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC012B19-1173-48F5-B642-C02E184F1A8E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E691E98-ED2D-4F3E-9008-6C51F2C6FC2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PC" sheetId="2" r:id="rId1"/>
+    <sheet name="Rat" sheetId="3" r:id="rId2"/>
+    <sheet name="Hyena" sheetId="5" r:id="rId3"/>
+    <sheet name="Mearcat" sheetId="6" r:id="rId4"/>
+    <sheet name="Machine" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,94 +59,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Idle_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이터/담배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>담배 불 붙이는 소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jump_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰어 오르기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 뛰어오르는 캐쥬얼한 소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Melee_Attack_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주먹질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀치 소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Damaged_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리적인 타격음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증기 뿜어져 나오는 소리와 동시에 총소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Melee_Skill_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가라테</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짧은 기합소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Die</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>굵은 비명소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>005</t>
   </si>
   <si>
@@ -176,78 +108,264 @@
     <t>015</t>
   </si>
   <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>Idle_01, Walk_01, Idle_BT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계 소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증기 배출 소리와 기계 태엽 소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>톱날 소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회전 톱날 베는 소리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_Machine_01 / 
-02_Machine_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러 차례의 작은 폭발음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_Machine_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">01_Machine_01 </t>
-  </si>
-  <si>
-    <t>손날 내밀기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커다란 증기 배출 소리와 기계 태엽 소리</t>
+    <t>PC.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담배피는 Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이터 착화음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>PC_melee_attack_FX.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>솩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈윳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총기 타격 - 생물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총기 타격 - 금속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 타격 - 소 (생물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 타격 - 대 (생물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 타격 - 대 (금속)</t>
+  </si>
+  <si>
+    <t>PC_range_attack_FX.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 디딛는 소리 (시작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 디딛는 소리 (도착)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_walk-jump.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 시작시 발 디딛고, 뱅글 도는 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워커 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_die.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 긴 타격음(과장된) + 땅에 굴러떨어지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat_01 / Rat_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jake_walk.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살금살금 걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake_attack.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나마이트 (대기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심지 타는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나마이트 (투척)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나마이트 날아가는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나마이트 (폭발)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나마이트 (착지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착지 1회 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나마이트 폭발음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake_die.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>털썩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JakeR_attack.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붕붕 2번 돌리고 슬링(회초리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyena_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루 찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루 청소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빗자루 청소 부스럭 대는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 쓸어내리는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 타격 - 소 (금속)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉찌르기 소리 (슈욱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>털썩 + 파이프 쓰러지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mearcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minkies_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쏘는 소리 
+고무줄 당기는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고철 뭉터기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minkies_die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와장창 + 굴파는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,18 +735,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DFD5B-5AEA-4CBC-AED8-5F1F2857FA93}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DCCB71-CB7F-462B-A010-27FB097CD8A0}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -657,97 +775,97 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -756,143 +874,131 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -900,4 +1006,400 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5309C050-7EEF-4E87-8044-39DA8BE020A9}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA137FF9-B0D7-4DA0-A2AD-76F2B11C5B5B}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C82AD-A408-404C-BBEF-C5CB7C06D69B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3321063-C5CB-428A-8A88-37DE821C7A64}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E691E98-ED2D-4F3E-9008-6C51F2C6FC2A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1004D3A-4F5B-49A1-8A3F-8229F649CDCF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="1" activeTab="2" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="2" r:id="rId1"/>
     <sheet name="Rat" sheetId="3" r:id="rId2"/>
     <sheet name="Hyena" sheetId="5" r:id="rId3"/>
     <sheet name="Mearcat" sheetId="6" r:id="rId4"/>
-    <sheet name="Machine" sheetId="4" r:id="rId5"/>
+    <sheet name="DonCina" sheetId="7" r:id="rId5"/>
+    <sheet name="Machine" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +206,6 @@
   </si>
   <si>
     <t>점프 시작시 발 디딛고, 뱅글 도는 사운드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걷는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,6 +363,161 @@
   </si>
   <si>
     <t>와장창 + 굴파는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기 - 중형 / 단단한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rat_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금속 나사를 슬링으로 던져서 맞는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonCina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_01</t>
+  </si>
+  <si>
+    <t>Idle_BT</t>
+  </si>
+  <si>
+    <t>Walk_01</t>
+  </si>
+  <si>
+    <t>Jump_01</t>
+  </si>
+  <si>
+    <t>Dameged_01</t>
+  </si>
+  <si>
+    <t>Die</t>
+  </si>
+  <si>
+    <t>Skill_00</t>
+  </si>
+  <si>
+    <t>Skill_01</t>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발구르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발 구르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기 - 대형 / 단단한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 - 대형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬 휘두르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬 내던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬을 위에서 아래로 내리는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬을 적에게 내던지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 - 사슬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_00 / Skill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰그락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬 회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_01에 맞으면 사슬을 당기는 촤르륵 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyena_02</t>
+  </si>
+  <si>
+    <t>대기 - 물뿌리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 물 뿌리는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 - 펌프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펌프 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망 - 중형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물줄기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물줄기 내보내는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 - 물줄기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물줄기 맞는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DCCB71-CB7F-462B-A010-27FB097CD8A0}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -978,10 +1130,10 @@
         <v>46</v>
       </c>
       <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -992,13 +1144,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5309C050-7EEF-4E87-8044-39DA8BE020A9}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1046,13 +1198,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1060,16 +1212,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1077,16 +1229,16 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1094,16 +1246,16 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1111,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1128,16 +1280,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1145,16 +1297,33 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="E8" t="s">
-        <v>70</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1334,210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA137FF9-B0D7-4DA0-A2AD-76F2B11C5B5B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C82AD-A408-404C-BBEF-C5CB7C06D69B}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -1196,35 +1568,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1232,50 +1607,16 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1284,12 +1625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C82AD-A408-404C-BBEF-C5CB7C06D69B}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5DAA55-595A-4596-A207-07AF1825F82F}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1317,47 +1658,166 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1365,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3321063-C5CB-428A-8A88-37DE821C7A64}">
   <dimension ref="A1:E1"/>
   <sheetViews>

--- a/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1004D3A-4F5B-49A1-8A3F-8229F649CDCF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC6B98-8821-491F-A6F8-714B509D57C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="1" activeTab="2" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="3" activeTab="7" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Mearcat" sheetId="6" r:id="rId4"/>
     <sheet name="DonCina" sheetId="7" r:id="rId5"/>
     <sheet name="Machine" sheetId="4" r:id="rId6"/>
+    <sheet name="Bloom" sheetId="9" r:id="rId7"/>
+    <sheet name="Ailliy" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="145">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +520,74 @@
   </si>
   <si>
     <t>물줄기 맞는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 스컹크가 점프를 하는 인위적인 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로 넘어지며 작은 폭발이 4번 발생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스 분출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이프에서 가스가 분출되는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던진 꽃이 폭발하는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충격파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃 바구니에서 가스를 발사하는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ailly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터지는 소리와 함께 고철 무너지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 사격 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연막탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연막탄 가스 터지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓰러지는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA137FF9-B0D7-4DA0-A2AD-76F2B11C5B5B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1610,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1630,7 +1700,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1827,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3321063-C5CB-428A-8A88-37DE821C7A64}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1858,6 +1928,276 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA63B8-A7D7-4FBD-BF13-0724C56E4DB9}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449601D-520A-4D46-9B75-C278F0C8BC94}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC6B98-8821-491F-A6F8-714B509D57C9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B525C-EB6C-49AD-B483-792270E2734C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="3" activeTab="7" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="3" activeTab="5" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,9 @@
   <si>
     <t>쓰러지는 소리</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
   </si>
 </sst>
 </file>
@@ -1899,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3321063-C5CB-428A-8A88-37DE821C7A64}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1932,8 +1935,8 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>81</v>
+      <c r="B2" t="s">
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1946,8 +1949,8 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>81</v>
+      <c r="B3" t="s">
+        <v>145</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -2102,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449601D-520A-4D46-9B75-C278F0C8BC94}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B525C-EB6C-49AD-B483-792270E2734C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B53B5B7-966E-44B7-87C4-00BD692620B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="3" activeTab="5" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="2" activeTab="7" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="154">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사망 - 대형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,6 +588,42 @@
   </si>
   <si>
     <t>Machine</t>
+  </si>
+  <si>
+    <t>피격 - 소(생물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 - 중(생물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 - 대(생물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 - 소(생물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0'011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyena_01/Hyena_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격 - 중(생물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1235,9 +1267,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5309C050-7EEF-4E87-8044-39DA8BE020A9}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA137FF9-B0D7-4DA0-A2AD-76F2B11C5B5B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C82AD-A408-404C-BBEF-C5CB7C06D69B}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1266,35 +1695,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1302,101 +1734,27 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1405,12 +1763,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA137FF9-B0D7-4DA0-A2AD-76F2B11C5B5B}">
-  <dimension ref="A1:E11"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5DAA55-595A-4596-A207-07AF1825F82F}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1443,16 +1801,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,13 +1815,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1474,16 +1832,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,16 +1846,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1508,16 +1860,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1525,16 +1874,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1542,16 +1888,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1559,13 +1905,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1573,16 +1922,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1590,17 +1939,23 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1608,12 +1963,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95C82AD-A408-404C-BBEF-C5CB7C06D69B}">
-  <dimension ref="A1:E4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3321063-C5CB-428A-8A88-37DE821C7A64}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1641,55 +1996,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1698,12 +2030,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5DAA55-595A-4596-A207-07AF1825F82F}">
-  <dimension ref="A1:E13"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA63B8-A7D7-4FBD-BF13-0724C56E4DB9}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1736,13 +2068,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1750,16 +2082,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1767,13 +2096,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>130</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1781,13 +2110,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1795,13 +2124,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1809,101 +2138,40 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>111</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" t="s">
-        <v>112</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" t="s">
-        <v>117</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3321063-C5CB-428A-8A88-37DE821C7A64}">
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449601D-520A-4D46-9B75-C278F0C8BC94}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1936,80 +2204,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA63B8-A7D7-4FBD-BF13-0724C56E4DB9}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2017,13 +2218,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,13 +2232,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2045,13 +2246,13 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,146 +2260,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449601D-520A-4D46-9B75-C278F0C8BC94}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="40.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
+++ b/DesignDocs/Design/발주 문서/사운드 발주 문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\발주 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B53B5B7-966E-44B7-87C4-00BD692620B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3960CA-3E5F-427A-A1DC-743BC4292F07}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="2" activeTab="7" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" firstSheet="8" activeTab="12" xr2:uid="{18E5C2E1-74D7-4506-AC11-C835359D26D8}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,11 @@
     <sheet name="Machine" sheetId="4" r:id="rId6"/>
     <sheet name="Bloom" sheetId="9" r:id="rId7"/>
     <sheet name="Ailliy" sheetId="10" r:id="rId8"/>
+    <sheet name="Cat_01" sheetId="13" r:id="rId9"/>
+    <sheet name="Cat_02" sheetId="17" r:id="rId10"/>
+    <sheet name="PitBull" sheetId="14" r:id="rId11"/>
+    <sheet name="Owl" sheetId="15" r:id="rId12"/>
+    <sheet name="Salamander" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="188">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +628,141 @@
   </si>
   <si>
     <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 - 칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼 (슬래쉬 한 칼 소리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리적인 타격 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_01_Skill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat_01_Skill_02</t>
+  </si>
+  <si>
+    <t>Cat_01_Die</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리 깨지는 소리 + 고양이 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 금속 찌르기 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 - 찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 - 날아 찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 금속 찌르기 소리 + 착지음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PitBull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기봉 2연격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기봉 찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발차기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감전봉에서 전류 스파크가 튀는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 감전 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽둥이로 때리는 소리 + 스파크 튀는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파크 튀는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리적인 타격소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드덕 깃털 빠지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타격 - 화염</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 방사기 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salamander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Idle_BT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스통이 점화되다 터지는 소리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콧바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콧바람 소리 (Doncena 것을 사용해도 무방)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1265,6 +1405,490 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A672EA5A-B28E-44AA-B59B-A1B5516C354A}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1296EE62-0004-42F2-B71C-63561CCA3525}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C78F66-6089-4611-99C7-D733B7639D65}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4932B0B6-AC74-45B2-B43D-31D2F7B56218}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5309C050-7EEF-4E87-8044-39DA8BE020A9}">
   <dimension ref="A1:E10"/>
@@ -1453,7 +2077,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1667,7 +2291,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1768,7 +2392,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1968,7 +2592,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2035,7 +2659,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2170,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3449601D-520A-4D46-9B75-C278F0C8BC94}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2270,4 +2894,109 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A03E99A-8873-49C4-9839-259BF50B00AD}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="40.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>